--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,34 +46,43 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>small</t>
@@ -82,108 +91,99 @@
     <t>plastic</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>money</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>money</t>
+    <t>would</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -214,31 +214,25 @@
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>family</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -610,7 +604,7 @@
         <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>57</v>
@@ -718,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K4">
-        <v>0.7076923076923077</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7526881720430108</v>
+        <v>0.78125</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K5">
-        <v>0.6881720430107527</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K6">
-        <v>0.660377358490566</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.734375</v>
+        <v>0.7087378640776699</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7281553398058253</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K8">
-        <v>0.4057971014492754</v>
+        <v>0.4375</v>
       </c>
       <c r="L8">
         <v>28</v>
@@ -960,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6554054054054054</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K9">
-        <v>0.3852459016393442</v>
+        <v>0.3680327868852459</v>
       </c>
       <c r="L9">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="M9">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>750</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6218487394957983</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K10">
-        <v>0.3371592539454806</v>
+        <v>0.3285509325681492</v>
       </c>
       <c r="L10">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M10">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6181818181818182</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K11">
-        <v>0.2780082987551867</v>
+        <v>0.3008298755186722</v>
       </c>
       <c r="L11">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M11">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,13 +1136,13 @@
         <v>66</v>
       </c>
       <c r="K12">
-        <v>0.275</v>
+        <v>0.2650602409638554</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>87</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1192,13 +1186,13 @@
         <v>67</v>
       </c>
       <c r="K13">
-        <v>0.2289156626506024</v>
+        <v>0.25</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5714285714285714</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>68</v>
@@ -1268,13 +1262,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5072463768115942</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C15">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>69</v>
@@ -1318,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4803149606299212</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C16">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K16">
-        <v>0.1182795698924731</v>
+        <v>0.112182296231376</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>164</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1362,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4761904761904762</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,31 +1380,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>0.1008771929824561</v>
+        <v>0.1044176706827309</v>
       </c>
       <c r="L17">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="N17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1025</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4457831325301205</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,31 +1430,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K18">
-        <v>0.06406685236768803</v>
+        <v>0.05</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="M18">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>336</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1468,13 +1462,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4259259259259259</v>
+        <v>0.4803149606299212</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1486,31 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>31</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19">
-        <v>0.03961038961038961</v>
-      </c>
-      <c r="L19">
-        <v>61</v>
-      </c>
-      <c r="M19">
-        <v>62</v>
-      </c>
-      <c r="N19">
-        <v>0.98</v>
-      </c>
-      <c r="O19">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1479</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,13 +1488,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4210526315789473</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1536,31 +1506,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>55</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20">
-        <v>0.03466666666666667</v>
-      </c>
-      <c r="L20">
-        <v>26</v>
-      </c>
-      <c r="M20">
-        <v>28</v>
-      </c>
-      <c r="N20">
-        <v>0.93</v>
-      </c>
-      <c r="O20">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>724</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,13 +1514,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3833333333333334</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1586,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1594,13 +1540,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.375</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1612,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1620,13 +1566,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3707865168539326</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1638,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1646,13 +1592,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3601895734597156</v>
+        <v>0.3359375</v>
       </c>
       <c r="C24">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1664,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1672,13 +1618,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3514851485148515</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="C25">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D25">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1690,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1698,13 +1644,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.328125</v>
+        <v>0.2843601895734597</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1716,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>86</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1724,13 +1670,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3076923076923077</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C27">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1742,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1750,13 +1696,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2474226804123711</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C28">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1768,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>146</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1776,13 +1722,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2474226804123711</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1794,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>73</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1802,13 +1748,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2448979591836735</v>
+        <v>0.2310126582278481</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1820,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>74</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1828,13 +1774,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.213768115942029</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="C31">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1846,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1854,13 +1800,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2056962025316456</v>
+        <v>0.1958456973293768</v>
       </c>
       <c r="C32">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="D32">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1872,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>251</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1880,13 +1826,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2025316455696203</v>
+        <v>0.1867088607594937</v>
       </c>
       <c r="C33">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D33">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1898,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1906,13 +1852,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1958456973293768</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="C34">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1924,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>542</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1932,13 +1878,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1864406779661017</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1950,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1958,13 +1904,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.185</v>
+        <v>0.1609195402298851</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1976,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>163</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1984,13 +1930,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1740088105726872</v>
+        <v>0.1585903083700441</v>
       </c>
       <c r="C37">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D37">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2002,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2010,13 +1956,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1714285714285714</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2028,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2036,13 +1982,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1682242990654206</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C39">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2054,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2062,13 +2008,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1528662420382166</v>
+        <v>0.135</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2080,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>133</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2088,25 +2034,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1527377521613833</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="C41">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D41">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>294</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2114,25 +2060,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1169354838709677</v>
+        <v>0.1214574898785425</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2140,13 +2086,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1123595505617977</v>
+        <v>0.1178082191780822</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2158,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>237</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2166,25 +2112,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09340659340659341</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="C44">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E44">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>330</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2192,25 +2138,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.07084019769357495</v>
+        <v>0.1003584229390681</v>
       </c>
       <c r="C45">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E45">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F45">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>564</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2218,25 +2164,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0623608017817372</v>
+        <v>0.07084019769357495</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>421</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2244,13 +2190,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06197183098591549</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D47">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2262,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2270,25 +2216,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.06018518518518518</v>
+        <v>0.066815144766147</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E48">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2296,25 +2242,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.0430379746835443</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C49">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E49">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F49">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>756</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2322,25 +2268,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04141104294478527</v>
+        <v>0.04292929292929293</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E50">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F50">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>625</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
